--- a/SprintBacklog/Sprint3.xlsx
+++ b/SprintBacklog/Sprint3.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Database code</t>
-  </si>
-  <si>
-    <t>SPRINT UNSUCESSFUL - very ill during the first week  and then was on holiday 13th - 17th</t>
   </si>
   <si>
     <t>Mon 19th Jan 2015 - Mon 2nd Feb 2015</t>
@@ -229,7 +226,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -345,6 +342,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -352,6 +363,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -373,6 +391,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -388,90 +413,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -507,8 +448,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="37"/>
-      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -817,7 +758,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,16 +774,14 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="V3" s="7" t="s">
         <v>14</v>
       </c>
@@ -854,7 +793,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -924,9 +863,15 @@
       <c r="E6" s="8">
         <v>4</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="8">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -945,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="8">
         <v>15</v>
@@ -957,37 +902,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H7" s="8">
-        <v>15</v>
-      </c>
-      <c r="I7" s="8">
-        <v>15</v>
-      </c>
-      <c r="J7" s="8">
-        <v>15</v>
-      </c>
-      <c r="K7" s="8">
-        <v>15</v>
-      </c>
-      <c r="L7" s="8">
-        <v>15</v>
-      </c>
-      <c r="M7" s="8">
-        <v>15</v>
-      </c>
-      <c r="N7" s="8">
-        <v>15</v>
-      </c>
-      <c r="O7" s="8">
-        <v>15</v>
-      </c>
-      <c r="P7" s="8">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1006,6 +924,15 @@
       <c r="E8" s="8">
         <v>3</v>
       </c>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1015,7 +942,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="8">
         <v>20</v>
@@ -1024,40 +951,13 @@
         <v>20</v>
       </c>
       <c r="F9" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G9" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H9" s="8">
-        <v>20</v>
-      </c>
-      <c r="I9" s="8">
-        <v>20</v>
-      </c>
-      <c r="J9" s="8">
-        <v>20</v>
-      </c>
-      <c r="K9" s="8">
-        <v>20</v>
-      </c>
-      <c r="L9" s="8">
-        <v>20</v>
-      </c>
-      <c r="M9" s="8">
-        <v>20</v>
-      </c>
-      <c r="N9" s="8">
-        <v>20</v>
-      </c>
-      <c r="O9" s="8">
-        <v>20</v>
-      </c>
-      <c r="P9" s="8">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1080,7 +980,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -1355,99 +1255,99 @@
       </c>
       <c r="F20">
         <f>SUM(F4:F16)</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <f>SUM(G4:G16)</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H20">
         <f>SUM(H4:H16)</f>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I20">
         <f>SUM(I4:I16)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <f>SUM(J4:J16)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <f>SUM(K4:K19)</f>
-        <v>35</v>
+        <f t="shared" ref="K20:Q20" si="0">SUM(K4:K19)</f>
+        <v>0</v>
       </c>
       <c r="L20">
-        <f>SUM(L4:L19)</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M20">
-        <f>SUM(M4:M19)</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N20">
-        <f>SUM(N4:N19)</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O20">
-        <f>SUM(O4:O19)</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P20">
-        <f>SUM(P4:P19)</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <f>SUM(Q4:Q19)</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="22" priority="30" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="32" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C18)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SprintBacklog/Sprint3.xlsx
+++ b/SprintBacklog/Sprint3.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -117,7 +117,22 @@
     <t>1) The user shall be able to add a recipe</t>
   </si>
   <si>
-    <t>2) The user shall be able to delete a recipe</t>
+    <t>2) The user shall be able to view a recipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recipe list view</t>
+  </si>
+  <si>
+    <t>Recipe view page</t>
+  </si>
+  <si>
+    <t>3) The user shall be able to edit a recipe</t>
+  </si>
+  <si>
+    <t>Edit recipe view</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -226,7 +241,14 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -258,13 +280,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -342,6 +357,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -413,6 +435,223 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -448,8 +687,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="61"/>
+      <tableStyleElement type="headerRow" dxfId="60"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -755,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8">
         <v>8</v>
@@ -872,15 +1111,36 @@
       <c r="H6" s="8">
         <v>4</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="I6" s="8">
+        <v>4</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -890,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8">
         <v>15</v>
@@ -906,6 +1166,36 @@
       </c>
       <c r="H7" s="8">
         <v>6</v>
+      </c>
+      <c r="I7" s="8">
+        <v>14</v>
+      </c>
+      <c r="J7" s="8">
+        <v>12</v>
+      </c>
+      <c r="K7" s="8">
+        <v>12</v>
+      </c>
+      <c r="L7" s="8">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -916,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8">
         <v>6</v>
@@ -932,6 +1222,36 @@
       </c>
       <c r="H8" s="8">
         <v>3</v>
+      </c>
+      <c r="I8" s="8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="8">
+        <v>3</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -942,7 +1262,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="8">
         <v>20</v>
@@ -958,6 +1278,36 @@
       </c>
       <c r="H9" s="8">
         <v>8</v>
+      </c>
+      <c r="I9" s="8">
+        <v>8</v>
+      </c>
+      <c r="J9" s="8">
+        <v>4</v>
+      </c>
+      <c r="K9" s="8">
+        <v>4</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1036,71 +1386,171 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B12" s="8">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8">
+        <v>14</v>
+      </c>
+      <c r="F12" s="8">
+        <v>14</v>
+      </c>
+      <c r="G12" s="8">
+        <v>14</v>
+      </c>
+      <c r="H12" s="8">
+        <v>14</v>
+      </c>
+      <c r="I12" s="8">
+        <v>14</v>
+      </c>
+      <c r="J12" s="8">
+        <v>14</v>
+      </c>
+      <c r="K12" s="8">
+        <v>14</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8">
+        <v>10</v>
+      </c>
+      <c r="I13" s="8">
+        <v>10</v>
+      </c>
+      <c r="J13" s="8">
+        <v>10</v>
+      </c>
+      <c r="K13" s="8">
+        <v>5</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="8">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8">
+        <v>14</v>
+      </c>
+      <c r="H14" s="8">
+        <v>14</v>
+      </c>
+      <c r="I14" s="8">
+        <v>14</v>
+      </c>
+      <c r="J14" s="8">
+        <v>14</v>
+      </c>
+      <c r="K14" s="8">
+        <v>5</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -1124,7 +1574,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1</v>
@@ -1169,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>7</v>
@@ -1178,40 +1628,66 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>11</v>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="8">
+        <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>25</v>
+      </c>
+      <c r="R17" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1225,193 +1701,407 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B20">
-        <f>SUM(B4:B16)</f>
-        <v>73</v>
-      </c>
-      <c r="D20">
-        <f>SUM(D4:D11)</f>
-        <v>49</v>
-      </c>
-      <c r="E20">
-        <f>SUM(E4:E16)</f>
-        <v>42</v>
-      </c>
-      <c r="F20">
-        <f>SUM(F4:F16)</f>
-        <v>33</v>
-      </c>
-      <c r="G20">
-        <f>SUM(G4:G16)</f>
-        <v>26</v>
-      </c>
-      <c r="H20">
-        <f>SUM(H4:H16)</f>
-        <v>21</v>
-      </c>
-      <c r="I20">
-        <f>SUM(I4:I16)</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f>SUM(J4:J16)</f>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f t="shared" ref="K20:Q20" si="0">SUM(K4:K19)</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="B25">
+        <f>SUM(B4:B21)</f>
+        <v>112</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D4:D24)</f>
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:J25" si="0">SUM(E4:E21)</f>
+        <v>80</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20">
+        <v>71</v>
+      </c>
+      <c r="G25">
+        <f>SUM(G4:G21)</f>
+        <v>64</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20">
+        <v>59</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20">
+        <v>67</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="K25">
+        <f>SUM(K4:K24)</f>
+        <v>40</v>
+      </c>
+      <c r="L25">
+        <f>SUM(L4:L24)</f>
+        <v>12</v>
+      </c>
+      <c r="M25">
+        <f>SUM(M4:M24)</f>
+        <v>13</v>
+      </c>
+      <c r="N25">
+        <f>SUM(N4:N24)</f>
+        <v>6</v>
+      </c>
+      <c r="O25">
+        <f>SUM(O4:O24)</f>
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <f>SUM(P4:P24)</f>
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <f>SUM(Q4:Q24)</f>
+        <v>25</v>
+      </c>
+      <c r="R25">
+        <f>SUM(R1:R21)</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C19)))</formula>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="46" priority="42" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="containsText" dxfId="35" priority="30" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C10">
+    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C10">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C10">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C10">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1419,7 +2109,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3">
       <formula1>To_Do</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C19 C6:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C24 C6:C10 C12:C14 C17">
       <formula1>Todos</formula1>
     </dataValidation>
   </dataValidations>
